--- a/data/trans_orig/P37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A7BD65-AC83-4B19-965C-48FD20A733D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8916C24A-22BC-4DF3-B0DA-6D37F7F7B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D564C0B7-0036-4C48-BA04-AE5FB22559ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0727D90C-71C9-4B2F-988E-A46F9FE335A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,160 +77,160 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,49%</t>
+    <t>92,59%</t>
   </si>
   <si>
     <t>95,28%</t>
@@ -242,544 +242,544 @@
     <t>7,43%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>96,44%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>9,29%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>90,71%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>88,87%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>23,36%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>76,64%</t>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>59,22%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>19,04%</t>
+    <t>18,97%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>17,96%</t>
@@ -791,7 +791,7 @@
     <t>18,95%</t>
   </si>
   <si>
-    <t>80,96%</t>
+    <t>81,03%</t>
   </si>
   <si>
     <t>83,65%</t>
@@ -800,10 +800,10 @@
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>82,04%</t>
@@ -821,10 +821,7 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>3,78%</t>
@@ -833,31 +830,25 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>5,94%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>6,27%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>92,21%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>94,06%</t>
+    <t>93,95%</t>
   </si>
   <si>
     <t>97,82%</t>
@@ -866,499 +857,508 @@
     <t>95,45%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>93,73%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>23,13%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>76,87%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>50,54%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
+    <t>49,46%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>88,8%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>91,9%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>83,37%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>19,33%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>80,67%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>37,13%</t>
@@ -1367,31 +1367,31 @@
     <t>33,59%</t>
   </si>
   <si>
-    <t>40,99%</t>
+    <t>40,83%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>59,01%</t>
+    <t>59,17%</t>
   </si>
   <si>
     <t>66,41%</t>
@@ -1400,127 +1400,115 @@
     <t>62,63%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>79,63%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>82,46%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>85,54%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>14,46%</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>61,71%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89701A4B-6666-4252-A3C1-031AB13037A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB6C8D-02AF-481F-8182-3A69358E0152}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2366,13 +2354,13 @@
         <v>34930</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2381,7 +2369,7 @@
         <v>44536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>53</v>
@@ -2417,22 +2405,22 @@
         <v>603738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>616</v>
       </c>
       <c r="I11" s="7">
-        <v>644227</v>
+        <v>644228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>60</v>
@@ -2480,7 +2468,7 @@
         <v>657</v>
       </c>
       <c r="I12" s="7">
-        <v>688763</v>
+        <v>688764</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2992,7 +2980,7 @@
         <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -3001,13 +2989,13 @@
         <v>535342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>969</v>
@@ -3016,13 +3004,13 @@
         <v>989828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,16 +3022,16 @@
         <v>2753</v>
       </c>
       <c r="D23" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>2785</v>
@@ -3052,13 +3040,13 @@
         <v>2841958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>5538</v>
@@ -3067,13 +3055,13 @@
         <v>5662251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3073,7 @@
         <v>3212</v>
       </c>
       <c r="D24" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3129,7 +3117,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106E756-4B88-453D-8884-ACF5D2A4474F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBD9744-474D-43A6-B5F1-02327748AC1D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3168,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3275,13 +3263,13 @@
         <v>27515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3290,13 +3278,13 @@
         <v>14122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3308,10 +3296,10 @@
         <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3314,13 @@
         <v>424679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>408</v>
@@ -3341,13 +3329,13 @@
         <v>416108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>826</v>
@@ -3359,10 +3347,10 @@
         <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3421,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3445,13 +3433,13 @@
         <v>32439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -3460,13 +3448,13 @@
         <v>73621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,10 +3472,10 @@
         <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>540</v>
@@ -3496,13 +3484,13 @@
         <v>577816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>1168</v>
@@ -3511,13 +3499,13 @@
         <v>1223721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>50910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3600,13 +3588,13 @@
         <v>51336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3615,13 +3603,13 @@
         <v>102246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3624,13 @@
         <v>630953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3651,13 +3639,13 @@
         <v>659514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -3758,10 +3746,10 @@
         <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3770,13 +3758,13 @@
         <v>95924</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3779,13 @@
         <v>561907</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>501</v>
@@ -3806,13 +3794,13 @@
         <v>570884</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3821,13 +3809,13 @@
         <v>1132791</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>83454</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3910,13 +3898,13 @@
         <v>85853</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3925,13 +3913,13 @@
         <v>169307</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3934,13 @@
         <v>344961</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3961,13 +3949,13 @@
         <v>361947</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>639</v>
@@ -4348,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B63080-ADE2-4832-AF35-4CE21AE77EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0269497-BBF5-49F7-AD77-3CE3A12656BC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4497,10 +4485,10 @@
         <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4509,13 +4497,13 @@
         <v>14979</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4524,13 +4512,13 @@
         <v>37133</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>397309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4560,13 +4548,13 @@
         <v>380776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -4575,13 +4563,13 @@
         <v>778085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4637,13 @@
         <v>23892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4664,13 +4652,13 @@
         <v>23680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4679,13 +4667,13 @@
         <v>47572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4688,13 @@
         <v>566604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4715,13 +4703,13 @@
         <v>539864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4730,13 +4718,13 @@
         <v>1106468</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4792,13 @@
         <v>17911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4819,13 +4807,13 @@
         <v>42773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4834,13 +4822,13 @@
         <v>60684</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4843,13 @@
         <v>651186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4870,13 +4858,13 @@
         <v>618613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
         <v>1246</v>
@@ -4885,13 +4873,13 @@
         <v>1269799</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4947,13 @@
         <v>51520</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4974,13 +4962,13 @@
         <v>45411</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4989,13 +4977,13 @@
         <v>96931</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4998,13 @@
         <v>594528</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -5025,22 +5013,22 @@
         <v>603666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1097</v>
       </c>
       <c r="N14" s="7">
-        <v>1198194</v>
+        <v>1198195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>319</v>
@@ -5088,7 +5076,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5117,10 +5105,10 @@
         <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -5129,13 +5117,13 @@
         <v>84698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5144,13 +5132,13 @@
         <v>175453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5153,13 @@
         <v>387163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -5180,13 +5168,13 @@
         <v>412151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5195,13 +5183,13 @@
         <v>799314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5257,13 @@
         <v>328116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -5284,13 +5272,13 @@
         <v>401340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>681</v>
@@ -5299,13 +5287,13 @@
         <v>729455</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5308,13 @@
         <v>263212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -5335,13 +5323,13 @@
         <v>376591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M20" s="7">
         <v>601</v>
@@ -5350,10 +5338,10 @@
         <v>639804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>354</v>
@@ -5567,7 +5555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5589,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3BFD48-9D7A-477D-B3F3-CA48EE6AA423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A877C9-B523-4504-A51E-27ACE4ECE77F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5746,10 +5734,10 @@
         <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,10 +5755,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5779,13 +5767,13 @@
         <v>312020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5794,13 +5782,13 @@
         <v>676079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5856,13 @@
         <v>47732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5883,13 +5871,13 @@
         <v>79801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5898,10 +5886,10 @@
         <v>127534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>396</v>
@@ -5922,10 +5910,10 @@
         <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -5934,13 +5922,13 @@
         <v>418776</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>656</v>
@@ -5949,13 +5937,13 @@
         <v>799439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6011,13 @@
         <v>90215</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6038,13 +6026,13 @@
         <v>95851</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -6053,13 +6041,13 @@
         <v>186066</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6062,13 @@
         <v>467037</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
@@ -6089,13 +6077,13 @@
         <v>487625</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -6485,16 +6473,16 @@
         <v>825</v>
       </c>
       <c r="D19" s="7">
-        <v>555630</v>
+        <v>555631</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>1382</v>
@@ -6503,13 +6491,13 @@
         <v>847681</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>2207</v>
@@ -6518,13 +6506,13 @@
         <v>1403312</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6527,13 @@
         <v>142124</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -6554,13 +6542,13 @@
         <v>178956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -6569,13 +6557,13 @@
         <v>321080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,7 +6575,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6643,13 +6631,13 @@
         <v>1071322</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>2238</v>
@@ -6658,13 +6646,13 @@
         <v>1456781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>3566</v>
@@ -6673,13 +6661,13 @@
         <v>2528103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6682,13 @@
         <v>2313906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>3124</v>
@@ -6709,13 +6697,13 @@
         <v>2348021</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>5172</v>
@@ -6724,13 +6712,13 @@
         <v>4661927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6774,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8916C24A-22BC-4DF3-B0DA-6D37F7F7B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA77412-D7F2-406A-B4F2-04E74366D92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0727D90C-71C9-4B2F-988E-A46F9FE335A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0AA073B8-5602-4310-879E-34099C6FDBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,1087 +77,1117 @@
     <t>3,61%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>92,52%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>81,01%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>50,54%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>40,58%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>49,46%</t>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -1920,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB6C8D-02AF-481F-8182-3A69358E0152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2CD04-0806-41DE-BA6B-5C2A1361BC4C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2354,13 +2384,13 @@
         <v>34930</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2369,13 +2399,13 @@
         <v>44536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2384,13 +2414,13 @@
         <v>79466</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2435,13 @@
         <v>603738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>616</v>
@@ -2420,13 +2450,13 @@
         <v>644228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -2435,10 +2465,10 @@
         <v>1247965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -2497,7 +2527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2539,13 @@
         <v>38583</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2524,13 +2554,13 @@
         <v>26398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2539,13 +2569,13 @@
         <v>64981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2590,13 @@
         <v>480564</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -2575,13 +2605,13 @@
         <v>489244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>924</v>
@@ -2590,13 +2620,13 @@
         <v>969808</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2664,13 +2694,13 @@
         <v>71539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2679,13 +2709,13 @@
         <v>71337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2694,13 +2724,13 @@
         <v>142876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2745,13 @@
         <v>315171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -2730,13 +2760,13 @@
         <v>332649</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -2745,13 +2775,13 @@
         <v>647820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2849,13 @@
         <v>258353</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -2834,13 +2864,13 @@
         <v>358161</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>610</v>
@@ -2849,13 +2879,13 @@
         <v>616514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2900,13 @@
         <v>243199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -2885,13 +2915,13 @@
         <v>318681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>573</v>
@@ -2900,13 +2930,13 @@
         <v>561880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +3004,13 @@
         <v>454486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -2989,13 +3019,13 @@
         <v>535342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>969</v>
@@ -3004,13 +3034,13 @@
         <v>989828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,16 +3052,16 @@
         <v>2753</v>
       </c>
       <c r="D23" s="7">
-        <v>2820293</v>
+        <v>2820292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2785</v>
@@ -3040,13 +3070,13 @@
         <v>2841958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5538</v>
@@ -3055,13 +3085,13 @@
         <v>5662251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3103,7 @@
         <v>3212</v>
       </c>
       <c r="D24" s="7">
-        <v>3274779</v>
+        <v>3274778</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3117,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBD9744-474D-43A6-B5F1-02327748AC1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7853A5D-5142-4104-BBA1-E8895EB72923}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3156,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,13 +3293,13 @@
         <v>27515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3278,13 +3308,13 @@
         <v>14122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3293,13 +3323,13 @@
         <v>41638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3344,13 @@
         <v>424679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>408</v>
@@ -3329,13 +3359,13 @@
         <v>416108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>826</v>
@@ -3344,13 +3374,13 @@
         <v>840786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3448,13 @@
         <v>41182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3433,13 +3463,13 @@
         <v>32439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -3448,13 +3478,13 @@
         <v>73621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3499,13 @@
         <v>645905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>540</v>
@@ -3484,13 +3514,13 @@
         <v>577816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1168</v>
@@ -3499,13 +3529,13 @@
         <v>1223721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3603,13 @@
         <v>50910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3588,13 +3618,13 @@
         <v>51336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3603,13 +3633,13 @@
         <v>102246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3654,13 @@
         <v>630953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3639,13 +3669,13 @@
         <v>659514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -3654,13 +3684,13 @@
         <v>1290466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3746,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3758,13 @@
         <v>51680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3743,13 +3773,13 @@
         <v>44244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3758,13 +3788,13 @@
         <v>95924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3809,13 @@
         <v>561907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>501</v>
@@ -3794,13 +3824,13 @@
         <v>570884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3809,13 +3839,13 @@
         <v>1132791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3880,16 +3910,16 @@
         <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>83454</v>
+        <v>83453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3898,13 +3928,13 @@
         <v>85853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3913,13 +3943,13 @@
         <v>169307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3964,13 @@
         <v>344961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3949,13 +3979,13 @@
         <v>361947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>639</v>
@@ -3964,13 +3994,13 @@
         <v>706907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,7 +4012,7 @@
         <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>428415</v>
+        <v>428414</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4038,13 +4068,13 @@
         <v>349430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>392</v>
@@ -4053,13 +4083,13 @@
         <v>421356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>702</v>
@@ -4068,13 +4098,13 @@
         <v>770786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4119,13 @@
         <v>209180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
@@ -4104,13 +4134,13 @@
         <v>321619</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4119,13 +4149,13 @@
         <v>530799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4223,13 @@
         <v>604171</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>602</v>
@@ -4208,13 +4238,13 @@
         <v>649351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>1150</v>
@@ -4223,13 +4253,13 @@
         <v>1253522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4274,13 @@
         <v>2817584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2695</v>
@@ -4259,28 +4289,28 @@
         <v>2907887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5351</v>
       </c>
       <c r="N23" s="7">
-        <v>5725471</v>
+        <v>5725470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,7 +4352,7 @@
         <v>6501</v>
       </c>
       <c r="N24" s="7">
-        <v>6978993</v>
+        <v>6978992</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0269497-BBF5-49F7-AD77-3CE3A12656BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFFD7C-FD8D-4FB8-9697-96D5171DDBB8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +4512,13 @@
         <v>22154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4497,13 +4527,13 @@
         <v>14979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4512,13 +4542,13 @@
         <v>37133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4563,13 @@
         <v>397309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4548,13 +4578,13 @@
         <v>380776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -4563,13 +4593,13 @@
         <v>778085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4667,13 @@
         <v>23892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4652,13 +4682,13 @@
         <v>23680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4667,13 +4697,13 @@
         <v>47572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4718,13 @@
         <v>566604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4703,13 +4733,13 @@
         <v>539864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4718,13 +4748,13 @@
         <v>1106468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4822,13 @@
         <v>17911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4807,13 +4837,13 @@
         <v>42773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4822,13 +4852,13 @@
         <v>60684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4873,13 @@
         <v>651186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4858,13 +4888,13 @@
         <v>618613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>1246</v>
@@ -4873,13 +4903,13 @@
         <v>1269799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4965,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4977,13 @@
         <v>51520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4962,13 +4992,13 @@
         <v>45411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4977,13 +5007,13 @@
         <v>96931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5028,13 @@
         <v>594528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -5013,28 +5043,28 @@
         <v>603666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>1097</v>
       </c>
       <c r="N14" s="7">
-        <v>1198195</v>
+        <v>1198194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5106,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5090,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5102,13 +5132,13 @@
         <v>90755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -5117,13 +5147,13 @@
         <v>84698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5132,13 +5162,13 @@
         <v>175453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5183,13 @@
         <v>387163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -5168,13 +5198,13 @@
         <v>412151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5183,13 +5213,13 @@
         <v>799314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5257,13 +5287,13 @@
         <v>328116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -5272,13 +5302,13 @@
         <v>401340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>681</v>
@@ -5287,13 +5317,13 @@
         <v>729455</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5338,13 @@
         <v>263212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -5323,13 +5353,13 @@
         <v>376591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>601</v>
@@ -5338,13 +5368,13 @@
         <v>639804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5442,13 @@
         <v>534348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>526</v>
@@ -5427,13 +5457,13 @@
         <v>612880</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>1062</v>
@@ -5442,13 +5472,13 @@
         <v>1147228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5493,13 @@
         <v>2860002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2812</v>
@@ -5478,13 +5508,13 @@
         <v>2931662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>5507</v>
@@ -5493,13 +5523,13 @@
         <v>5791664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A877C9-B523-4504-A51E-27ACE4ECE77F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC26B9-B279-41E8-BE65-49D10CF017B9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5704,10 +5734,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5716,13 +5746,13 @@
         <v>42937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5731,13 +5761,13 @@
         <v>56557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,10 +5785,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5767,13 +5797,13 @@
         <v>312020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5782,13 +5812,13 @@
         <v>676079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5886,13 @@
         <v>47732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5871,13 +5901,13 @@
         <v>79801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5886,13 +5916,13 @@
         <v>127534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5937,13 @@
         <v>380664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -5922,13 +5952,13 @@
         <v>418776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>656</v>
@@ -5937,13 +5967,13 @@
         <v>799439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6041,13 @@
         <v>90215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6026,13 +6056,13 @@
         <v>95851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -6041,13 +6071,13 @@
         <v>186066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6092,13 @@
         <v>467037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
@@ -6077,13 +6107,13 @@
         <v>487625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -6092,13 +6122,13 @@
         <v>954661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6184,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6166,13 +6196,13 @@
         <v>141296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>256</v>
@@ -6181,13 +6211,13 @@
         <v>168446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -6196,13 +6226,13 @@
         <v>309742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6247,13 @@
         <v>582694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>884</v>
@@ -6232,13 +6262,13 @@
         <v>578408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1414</v>
@@ -6247,13 +6277,13 @@
         <v>1161102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6321,13 +6351,13 @@
         <v>222828</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>372</v>
@@ -6336,13 +6366,13 @@
         <v>222064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>621</v>
@@ -6351,13 +6381,13 @@
         <v>444892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6402,13 @@
         <v>377329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>629</v>
@@ -6387,13 +6417,13 @@
         <v>372237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1043</v>
@@ -6402,13 +6432,13 @@
         <v>749566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6506,13 @@
         <v>555631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>1382</v>
@@ -6491,13 +6521,13 @@
         <v>847681</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>2207</v>
@@ -6506,13 +6536,13 @@
         <v>1403312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6557,13 @@
         <v>142124</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -6542,13 +6572,13 @@
         <v>178956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -6557,13 +6587,13 @@
         <v>321080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6661,13 @@
         <v>1071322</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>2238</v>
@@ -6646,13 +6676,13 @@
         <v>1456781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>3566</v>
@@ -6661,13 +6691,13 @@
         <v>2528103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6712,13 @@
         <v>2313906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>3124</v>
@@ -6697,13 +6727,13 @@
         <v>2348021</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>5172</v>
@@ -6712,13 +6742,13 @@
         <v>4661927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA77412-D7F2-406A-B4F2-04E74366D92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74280FDE-8FE3-469B-B33C-C5F33C7F61E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0AA073B8-5602-4310-879E-34099C6FDBBF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C71CFFC6-32A6-46FA-BDD7-2A178BE52587}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="494">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -98,7 +98,7 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>95,73%</t>
+    <t>95,65%</t>
   </si>
   <si>
     <t>97,93%</t>
@@ -140,106 +140,100 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,61%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +242,55 @@
     <t>7,43%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,1240 +299,1228 @@
     <t>18,5%</t>
   </si>
   <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>61,71%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B2CD04-0806-41DE-BA6B-5C2A1361BC4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1182A297-2B7E-488F-9E10-A706616F38C3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2384,13 +2366,13 @@
         <v>34930</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2399,13 +2381,13 @@
         <v>44536</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -2414,13 +2396,13 @@
         <v>79466</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,28 +2417,28 @@
         <v>603738</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>616</v>
       </c>
       <c r="I11" s="7">
-        <v>644228</v>
+        <v>644227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1196</v>
@@ -2465,10 +2447,10 @@
         <v>1247965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>64</v>
@@ -2498,7 +2480,7 @@
         <v>657</v>
       </c>
       <c r="I12" s="7">
-        <v>688764</v>
+        <v>688763</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2527,7 +2509,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2521,13 @@
         <v>38583</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2554,13 +2536,13 @@
         <v>26398</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2569,13 +2551,13 @@
         <v>64981</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2572,13 @@
         <v>480564</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -2605,13 +2587,13 @@
         <v>489244</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>924</v>
@@ -2620,13 +2602,13 @@
         <v>969808</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2676,13 @@
         <v>71539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2709,13 +2691,13 @@
         <v>71337</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>142</v>
@@ -2724,13 +2706,13 @@
         <v>142876</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2727,13 @@
         <v>315171</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -2760,13 +2742,13 @@
         <v>332649</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -2775,13 +2757,13 @@
         <v>647820</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2819,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2831,13 @@
         <v>258353</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>341</v>
@@ -2864,13 +2846,13 @@
         <v>358161</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>610</v>
@@ -2879,13 +2861,13 @@
         <v>616514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2882,13 @@
         <v>243199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -2915,13 +2897,13 @@
         <v>318681</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>573</v>
@@ -2930,13 +2912,13 @@
         <v>561880</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2986,13 @@
         <v>454486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>510</v>
@@ -3019,13 +3001,13 @@
         <v>535342</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>969</v>
@@ -3034,13 +3016,13 @@
         <v>989828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3037,13 @@
         <v>2820292</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>2785</v>
@@ -3070,13 +3052,13 @@
         <v>2841958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>5538</v>
@@ -3085,13 +3067,13 @@
         <v>5662251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3129,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7853A5D-5142-4104-BBA1-E8895EB72923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359357F-DA82-46F4-A84F-AA7714957168}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3275,13 @@
         <v>27515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3308,13 +3290,13 @@
         <v>14122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3323,13 +3305,13 @@
         <v>41638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3326,13 @@
         <v>424679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>408</v>
@@ -3359,13 +3341,13 @@
         <v>416108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>826</v>
@@ -3374,13 +3356,13 @@
         <v>840786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3430,13 @@
         <v>41182</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3463,13 +3445,13 @@
         <v>32439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -3478,13 +3460,13 @@
         <v>73621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3481,13 @@
         <v>645905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>540</v>
@@ -3514,13 +3496,13 @@
         <v>577816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>1168</v>
@@ -3529,13 +3511,13 @@
         <v>1223721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3585,13 @@
         <v>50910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3618,13 +3600,13 @@
         <v>51336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3633,13 +3615,13 @@
         <v>102246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3636,13 @@
         <v>630953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3669,13 +3651,13 @@
         <v>659514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -3684,13 +3666,13 @@
         <v>1290466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3728,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3740,13 @@
         <v>51680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3773,13 +3755,13 @@
         <v>44244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3788,13 +3770,13 @@
         <v>95924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3791,13 @@
         <v>561907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>501</v>
@@ -3824,13 +3806,13 @@
         <v>570884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3839,13 +3821,13 @@
         <v>1132791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3883,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3910,16 +3892,16 @@
         <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>83453</v>
+        <v>83454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3928,13 +3910,13 @@
         <v>85853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3943,13 +3925,13 @@
         <v>169307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3946,13 @@
         <v>344961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3979,13 +3961,13 @@
         <v>361947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>639</v>
@@ -3994,13 +3976,13 @@
         <v>706907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +3994,7 @@
         <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>428414</v>
+        <v>428415</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4056,7 +4038,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4050,13 @@
         <v>349430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>392</v>
@@ -4083,13 +4065,13 @@
         <v>421356</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>702</v>
@@ -4098,13 +4080,13 @@
         <v>770786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4101,13 @@
         <v>209180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
@@ -4134,13 +4116,13 @@
         <v>321619</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4149,13 +4131,13 @@
         <v>530799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4205,13 @@
         <v>604171</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>602</v>
@@ -4238,13 +4220,13 @@
         <v>649351</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M22" s="7">
         <v>1150</v>
@@ -4253,13 +4235,13 @@
         <v>1253522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4256,13 @@
         <v>2817584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>2695</v>
@@ -4289,28 +4271,28 @@
         <v>2907887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>5351</v>
       </c>
       <c r="N23" s="7">
-        <v>5725470</v>
+        <v>5725471</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4334,7 @@
         <v>6501</v>
       </c>
       <c r="N24" s="7">
-        <v>6978992</v>
+        <v>6978993</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4366,7 +4348,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFFD7C-FD8D-4FB8-9697-96D5171DDBB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF243ED-7417-440D-AEBE-8054580F9E18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4494,13 @@
         <v>22154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4527,13 +4509,13 @@
         <v>14979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4542,13 +4524,13 @@
         <v>37133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4545,13 @@
         <v>397309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4578,13 +4560,13 @@
         <v>380776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -4593,13 +4575,13 @@
         <v>778085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4649,13 @@
         <v>23892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4682,13 +4664,13 @@
         <v>23680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -4697,13 +4679,13 @@
         <v>47572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>566604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4733,13 +4715,13 @@
         <v>539864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4748,13 +4730,13 @@
         <v>1106468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4804,13 @@
         <v>17911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4837,13 +4819,13 @@
         <v>42773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4852,13 +4834,13 @@
         <v>60684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4855,13 @@
         <v>651186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4888,13 +4870,13 @@
         <v>618613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>1246</v>
@@ -4903,13 +4885,13 @@
         <v>1269799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4947,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +4959,13 @@
         <v>51520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4992,13 +4974,13 @@
         <v>45411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -5007,13 +4989,13 @@
         <v>96931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5010,13 @@
         <v>594528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -5043,13 +5025,13 @@
         <v>603666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>1097</v>
@@ -5058,13 +5040,13 @@
         <v>1198194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5102,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5114,13 @@
         <v>90755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -5147,13 +5129,13 @@
         <v>84698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5162,13 +5144,13 @@
         <v>175453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5165,13 @@
         <v>387163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -5198,13 +5180,13 @@
         <v>412151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5213,13 +5195,13 @@
         <v>799314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5257,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5269,13 @@
         <v>328116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>329</v>
@@ -5302,13 +5284,13 @@
         <v>401340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>681</v>
@@ -5317,13 +5299,13 @@
         <v>729455</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5320,13 @@
         <v>263212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -5353,13 +5335,13 @@
         <v>376591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>601</v>
@@ -5368,13 +5350,13 @@
         <v>639804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5424,13 @@
         <v>534348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>526</v>
@@ -5457,13 +5439,13 @@
         <v>612880</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>1062</v>
@@ -5472,13 +5454,13 @@
         <v>1147228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5475,13 @@
         <v>2860002</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7">
         <v>2812</v>
@@ -5508,13 +5490,13 @@
         <v>2931662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M23" s="7">
         <v>5507</v>
@@ -5523,13 +5505,13 @@
         <v>5791664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5567,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEC26B9-B279-41E8-BE65-49D10CF017B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1AA6C-9517-49C0-982A-0880255404F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5734,10 +5716,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5746,13 +5728,13 @@
         <v>42937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5761,13 +5743,13 @@
         <v>56557</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,10 +5767,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5797,13 +5779,13 @@
         <v>312020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5812,13 +5794,13 @@
         <v>676079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5868,13 @@
         <v>47732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -5901,13 +5883,13 @@
         <v>79801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5916,13 +5898,13 @@
         <v>127534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5919,13 @@
         <v>380664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -5952,13 +5934,13 @@
         <v>418776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>656</v>
@@ -5967,13 +5949,13 @@
         <v>799439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6023,13 @@
         <v>90215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
@@ -6056,13 +6038,13 @@
         <v>95851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>418</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
@@ -6071,13 +6053,13 @@
         <v>186066</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6074,13 @@
         <v>467037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
@@ -6107,13 +6089,13 @@
         <v>487625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -6122,13 +6104,13 @@
         <v>954661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6166,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6178,13 @@
         <v>141296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>256</v>
@@ -6211,13 +6193,13 @@
         <v>168446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -6226,13 +6208,13 @@
         <v>309742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6229,13 @@
         <v>582694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>884</v>
@@ -6262,13 +6244,13 @@
         <v>578408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>1414</v>
@@ -6277,13 +6259,13 @@
         <v>1161102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6321,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6333,13 @@
         <v>222828</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>372</v>
@@ -6366,13 +6348,13 @@
         <v>222064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>621</v>
@@ -6381,13 +6363,13 @@
         <v>444892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6384,13 @@
         <v>377329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>629</v>
@@ -6417,13 +6399,13 @@
         <v>372237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>1043</v>
@@ -6432,13 +6414,13 @@
         <v>749566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6476,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6503,16 +6485,16 @@
         <v>825</v>
       </c>
       <c r="D19" s="7">
-        <v>555631</v>
+        <v>555630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H19" s="7">
         <v>1382</v>
@@ -6521,13 +6503,13 @@
         <v>847681</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>2207</v>
@@ -6536,13 +6518,13 @@
         <v>1403312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6539,13 @@
         <v>142124</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
         <v>326</v>
@@ -6572,13 +6554,13 @@
         <v>178956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -6587,13 +6569,13 @@
         <v>321080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6587,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6661,13 +6643,13 @@
         <v>1071322</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
         <v>2238</v>
@@ -6676,13 +6658,13 @@
         <v>1456781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
         <v>3566</v>
@@ -6691,13 +6673,13 @@
         <v>2528103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6694,13 @@
         <v>2313906</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>3124</v>
@@ -6727,13 +6709,13 @@
         <v>2348021</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
         <v>5172</v>
@@ -6742,13 +6724,13 @@
         <v>4661927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6786,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74280FDE-8FE3-469B-B33C-C5F33C7F61E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51DCF184-39E4-47B3-8FA4-2ADEFD3B5A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C71CFFC6-32A6-46FA-BDD7-2A178BE52587}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE36CAD-0586-498F-9090-0BD6275A6818}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="561">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,53%</t>
@@ -191,7 +191,7 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -236,7 +236,7 @@
     <t>95,28%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>7,43%</t>
@@ -293,7 +293,7 @@
     <t>94,98%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>18,5%</t>
@@ -350,421 +350,526 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>16,35%</t>
@@ -1052,58 +1157,112 @@
     <t>84,62%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>15,74%</t>
@@ -1163,364 +1322,406 @@
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
 </sst>
 </file>
@@ -1932,8 +2133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1182A297-2B7E-488F-9E10-A706616F38C3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7A947F-DB0F-4BB6-8E1F-D745B07B3F91}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2825,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>258353</v>
+        <v>115532</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2840,10 +3041,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="I19" s="7">
-        <v>358161</v>
+        <v>151936</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2855,10 +3056,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>610</v>
+        <v>283</v>
       </c>
       <c r="N19" s="7">
-        <v>616514</v>
+        <v>267468</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2876,10 +3077,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="D20" s="7">
-        <v>243199</v>
+        <v>176137</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2891,10 +3092,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="I20" s="7">
-        <v>318681</v>
+        <v>190998</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2906,10 +3107,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>573</v>
+        <v>390</v>
       </c>
       <c r="N20" s="7">
-        <v>561880</v>
+        <v>367135</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2927,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501552</v>
+        <v>291669</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2942,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2957,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1178394</v>
+        <v>634603</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2974,55 +3175,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>459</v>
+        <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>454486</v>
+        <v>142821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>177</v>
+      </c>
+      <c r="I22" s="7">
+        <v>206225</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="7">
+        <v>327</v>
+      </c>
+      <c r="N22" s="7">
+        <v>349046</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="7">
-        <v>510</v>
-      </c>
-      <c r="I22" s="7">
-        <v>535342</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="7">
-        <v>969</v>
-      </c>
-      <c r="N22" s="7">
-        <v>989828</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2753</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>2820292</v>
+        <v>67062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="7">
+        <v>113</v>
+      </c>
+      <c r="I23" s="7">
+        <v>127683</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="7">
+        <v>183</v>
+      </c>
+      <c r="N23" s="7">
+        <v>194745</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="7">
-        <v>2785</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2841958</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5538</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5662251</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,63 +3283,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>459</v>
+      </c>
+      <c r="D25" s="7">
+        <v>454486</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7">
+        <v>510</v>
+      </c>
+      <c r="I25" s="7">
+        <v>535342</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>969</v>
+      </c>
+      <c r="N25" s="7">
+        <v>989828</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2753</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2820293</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2785</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2841958</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5538</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5662251</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3212</v>
       </c>
-      <c r="D24" s="7">
-        <v>3274778</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3274779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377300</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6652079</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3151,8 +3508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359357F-DA82-46F4-A84F-AA7714957168}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06D1DBA-86D0-43A8-9555-E3242D0EA2D7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3168,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3275,13 +3632,13 @@
         <v>27515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3290,13 +3647,13 @@
         <v>14122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -3308,10 +3665,10 @@
         <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3683,13 @@
         <v>424679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>408</v>
@@ -3341,13 +3698,13 @@
         <v>416108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>826</v>
@@ -3359,10 +3716,10 @@
         <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3790,10 @@
         <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -3445,13 +3802,13 @@
         <v>32439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -3460,13 +3817,13 @@
         <v>73621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,10 +3841,10 @@
         <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>540</v>
@@ -3496,13 +3853,13 @@
         <v>577816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>1168</v>
@@ -3511,13 +3868,13 @@
         <v>1223721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3942,13 @@
         <v>50910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3600,13 +3957,13 @@
         <v>51336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3615,13 +3972,13 @@
         <v>102246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3993,13 @@
         <v>630953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -3651,13 +4008,13 @@
         <v>659514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -3666,13 +4023,13 @@
         <v>1290466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +4097,13 @@
         <v>51680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3755,13 +4112,13 @@
         <v>44244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3770,13 +4127,13 @@
         <v>95924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +4148,13 @@
         <v>561907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>501</v>
@@ -3806,13 +4163,13 @@
         <v>570884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3821,13 +4178,13 @@
         <v>1132791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +4252,13 @@
         <v>83454</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -3910,13 +4267,13 @@
         <v>85853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3925,13 +4282,13 @@
         <v>169307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +4303,13 @@
         <v>344961</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3961,28 +4318,28 @@
         <v>361947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>639</v>
       </c>
       <c r="N17" s="7">
-        <v>706907</v>
+        <v>706908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4381,7 @@
         <v>798</v>
       </c>
       <c r="N18" s="7">
-        <v>876214</v>
+        <v>876215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4044,49 +4401,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="D19" s="7">
-        <v>349430</v>
+        <v>178244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>392</v>
+        <v>165</v>
       </c>
       <c r="I19" s="7">
-        <v>421356</v>
+        <v>169403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>702</v>
+        <v>325</v>
       </c>
       <c r="N19" s="7">
-        <v>770786</v>
+        <v>347647</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,49 +4452,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>209180</v>
+        <v>131542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="I20" s="7">
-        <v>321619</v>
+        <v>184593</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>495</v>
+        <v>301</v>
       </c>
       <c r="N20" s="7">
-        <v>530799</v>
+        <v>316135</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558610</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4161,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4176,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301585</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4193,55 +4550,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>548</v>
+        <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>604171</v>
+        <v>171186</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>602</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>649351</v>
+        <v>251953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
-        <v>1150</v>
+        <v>377</v>
       </c>
       <c r="N22" s="7">
-        <v>1253522</v>
+        <v>423139</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,49 +4607,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2656</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>2817584</v>
+        <v>77638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>2695</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7">
-        <v>2907887</v>
+        <v>137026</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>5351</v>
+        <v>194</v>
       </c>
       <c r="N23" s="7">
-        <v>5725471</v>
+        <v>214664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,63 +4658,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248824</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637803</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>548</v>
+      </c>
+      <c r="D25" s="7">
+        <v>604171</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="7">
+        <v>602</v>
+      </c>
+      <c r="I25" s="7">
+        <v>649351</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1150</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1253522</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2656</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2817584</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2695</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2907887</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5351</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5725471</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421755</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3557238</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6501</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6978993</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4370,8 +4883,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF243ED-7417-440D-AEBE-8054580F9E18}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EEA35A-F4A8-48EE-A14B-65EA601FF0A4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4387,7 +4900,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4494,13 +5007,13 @@
         <v>22154</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4509,13 +5022,13 @@
         <v>14979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4524,13 +5037,13 @@
         <v>37133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +5058,13 @@
         <v>397309</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4560,13 +5073,13 @@
         <v>380776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>762</v>
@@ -4575,13 +5088,13 @@
         <v>778085</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +5162,13 @@
         <v>23892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4664,10 +5177,10 @@
         <v>23680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>55</v>
@@ -4679,13 +5192,13 @@
         <v>47572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +5213,13 @@
         <v>566604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -4715,13 +5228,13 @@
         <v>539864</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>1098</v>
@@ -4730,13 +5243,13 @@
         <v>1106468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,10 +5317,10 @@
         <v>17911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -4822,10 +5335,10 @@
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -4834,13 +5347,13 @@
         <v>60684</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +5368,13 @@
         <v>651186</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4873,10 +5386,10 @@
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>1246</v>
@@ -4885,13 +5398,13 @@
         <v>1269799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +5472,13 @@
         <v>51520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4974,13 +5487,13 @@
         <v>45411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4989,13 +5502,13 @@
         <v>96931</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5523,13 @@
         <v>594528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>560</v>
@@ -5025,10 +5538,10 @@
         <v>603666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>77</v>
@@ -5040,13 +5553,13 @@
         <v>1198194</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5627,13 @@
         <v>90755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -5129,13 +5642,13 @@
         <v>84698</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -5144,13 +5657,13 @@
         <v>175453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5678,13 @@
         <v>387163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>359</v>
@@ -5180,13 +5693,13 @@
         <v>412151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -5195,13 +5708,13 @@
         <v>799314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,49 +5776,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="D19" s="7">
-        <v>328116</v>
+        <v>156383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
-        <v>329</v>
+        <v>151</v>
       </c>
       <c r="I19" s="7">
-        <v>401340</v>
+        <v>162052</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
-        <v>681</v>
+        <v>303</v>
       </c>
       <c r="N19" s="7">
-        <v>729455</v>
+        <v>318435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,49 +5827,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="D20" s="7">
-        <v>263212</v>
+        <v>177947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="I20" s="7">
-        <v>376591</v>
+        <v>215710</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>601</v>
+        <v>376</v>
       </c>
       <c r="N20" s="7">
-        <v>639804</v>
+        <v>393657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5380,10 +5893,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5395,10 +5908,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5412,55 +5925,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>536</v>
+        <v>200</v>
       </c>
       <c r="D22" s="7">
-        <v>534348</v>
+        <v>171733</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
-        <v>526</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7">
-        <v>612880</v>
+        <v>239287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
-        <v>1062</v>
+        <v>378</v>
       </c>
       <c r="N22" s="7">
-        <v>1147228</v>
+        <v>411020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,49 +5982,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2695</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7">
-        <v>2860002</v>
+        <v>85265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="H23" s="7">
-        <v>2812</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7">
-        <v>2931662</v>
+        <v>160882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
-        <v>5507</v>
+        <v>225</v>
       </c>
       <c r="N23" s="7">
-        <v>5791664</v>
+        <v>246147</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,63 +6033,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>536</v>
+      </c>
+      <c r="D25" s="7">
+        <v>534348</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H25" s="7">
+        <v>526</v>
+      </c>
+      <c r="I25" s="7">
+        <v>612880</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1062</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1147228</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2695</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2860002</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2812</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2931662</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5507</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5791664</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5589,8 +6258,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E1AA6C-9517-49C0-982A-0880255404F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9825CC-1D98-42F3-B493-9038037D786B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5606,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5710,46 +6379,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>13620</v>
+        <v>15106</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>42937</v>
+        <v>39347</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>56557</v>
+        <v>54452</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,46 +6430,46 @@
         <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>364059</v>
+        <v>384881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>312020</v>
+        <v>273853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>676079</v>
+        <v>658735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +6481,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5827,7 +6496,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5842,7 +6511,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5865,46 +6534,46 @@
         <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>47732</v>
+        <v>47019</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>79801</v>
+        <v>74303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
       </c>
       <c r="N7" s="7">
-        <v>127534</v>
+        <v>121322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,46 +6585,46 @@
         <v>268</v>
       </c>
       <c r="D8" s="7">
-        <v>380664</v>
+        <v>376528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
       </c>
       <c r="I8" s="7">
-        <v>418776</v>
+        <v>437201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>656</v>
       </c>
       <c r="N8" s="7">
-        <v>799439</v>
+        <v>813729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +6636,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5982,7 +6651,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5997,7 +6666,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6020,46 +6689,46 @@
         <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>90215</v>
+        <v>84718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>95851</v>
+        <v>88334</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>211</v>
       </c>
       <c r="N10" s="7">
-        <v>186066</v>
+        <v>173052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,46 +6740,46 @@
         <v>467</v>
       </c>
       <c r="D11" s="7">
-        <v>467037</v>
+        <v>451620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>714</v>
       </c>
       <c r="I11" s="7">
-        <v>487625</v>
+        <v>454134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
       </c>
       <c r="N11" s="7">
-        <v>954661</v>
+        <v>905754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6791,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6137,7 +6806,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6152,7 +6821,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6175,46 +6844,46 @@
         <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>141296</v>
+        <v>131581</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>256</v>
       </c>
       <c r="I13" s="7">
-        <v>168446</v>
+        <v>154476</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
       </c>
       <c r="N13" s="7">
-        <v>309742</v>
+        <v>286057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,46 +6895,46 @@
         <v>530</v>
       </c>
       <c r="D14" s="7">
-        <v>582694</v>
+        <v>756205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>884</v>
       </c>
       <c r="I14" s="7">
-        <v>578408</v>
+        <v>558022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>1414</v>
       </c>
       <c r="N14" s="7">
-        <v>1161102</v>
+        <v>1314228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6946,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6292,7 +6961,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6307,7 +6976,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6330,46 +6999,46 @@
         <v>249</v>
       </c>
       <c r="D16" s="7">
-        <v>222828</v>
+        <v>206427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="H16" s="7">
         <v>372</v>
       </c>
       <c r="I16" s="7">
-        <v>222064</v>
+        <v>202107</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M16" s="7">
         <v>621</v>
       </c>
       <c r="N16" s="7">
-        <v>444892</v>
+        <v>408533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,46 +7050,46 @@
         <v>414</v>
       </c>
       <c r="D17" s="7">
-        <v>377329</v>
+        <v>354807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="H17" s="7">
         <v>629</v>
       </c>
       <c r="I17" s="7">
-        <v>372237</v>
+        <v>343459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="M17" s="7">
         <v>1043</v>
       </c>
       <c r="N17" s="7">
-        <v>749566</v>
+        <v>698266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,7 +7101,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6447,7 +7116,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6462,7 +7131,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1194458</v>
+        <v>1106799</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6482,49 +7151,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>825</v>
+        <v>417</v>
       </c>
       <c r="D19" s="7">
-        <v>555630</v>
+        <v>269319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="H19" s="7">
-        <v>1382</v>
+        <v>612</v>
       </c>
       <c r="I19" s="7">
-        <v>847681</v>
+        <v>500941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>461</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
-        <v>2207</v>
+        <v>1029</v>
       </c>
       <c r="N19" s="7">
-        <v>1403312</v>
+        <v>770260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,49 +7202,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="D20" s="7">
-        <v>142124</v>
+        <v>98846</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="I20" s="7">
-        <v>178956</v>
+        <v>107427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="N20" s="7">
-        <v>321080</v>
+        <v>206273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,10 +7253,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6599,10 +7268,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6614,10 +7283,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6631,55 +7300,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1328</v>
+        <v>408</v>
       </c>
       <c r="D22" s="7">
-        <v>1071322</v>
+        <v>249273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="H22" s="7">
-        <v>2238</v>
+        <v>770</v>
       </c>
       <c r="I22" s="7">
-        <v>1456781</v>
+        <v>369069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="M22" s="7">
-        <v>3566</v>
+        <v>1178</v>
       </c>
       <c r="N22" s="7">
-        <v>2528103</v>
+        <v>618342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,49 +7357,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2048</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>2313906</v>
+        <v>33486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="H23" s="7">
-        <v>3124</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>2348021</v>
+        <v>56762</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
-        <v>5172</v>
+        <v>161</v>
       </c>
       <c r="N23" s="7">
-        <v>4661927</v>
+        <v>90248</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,63 +7408,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1328</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1003443</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2238</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1428576</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3566</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2432019</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2048</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2456374</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3124</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2230859</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5172</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4687233</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5362</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659435</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8738</v>
       </c>
-      <c r="N24" s="7">
-        <v>7190030</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7119252</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
